--- a/Code/Results/Cases/Case_4_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_221/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.115045180583309</v>
+        <v>0.883183028644055</v>
       </c>
       <c r="C2">
-        <v>0.6083086475702828</v>
+        <v>0.2358512843325684</v>
       </c>
       <c r="D2">
-        <v>0.3784089932473762</v>
+        <v>0.5864826086597219</v>
       </c>
       <c r="E2">
-        <v>0.1188718065515033</v>
+        <v>0.2171666956241971</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007981192985758228</v>
+        <v>0.00246720104783973</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3466645830583523</v>
+        <v>0.7222800043408846</v>
       </c>
       <c r="J2">
-        <v>0.04162505443337849</v>
+        <v>0.09812368452844211</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7193225404465764</v>
+        <v>0.4786273770703033</v>
       </c>
       <c r="N2">
-        <v>0.7064854656138841</v>
+        <v>1.365034447659678</v>
       </c>
       <c r="O2">
-        <v>2.497777015599439</v>
+        <v>4.030090296124257</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.836336182851937</v>
+        <v>0.8033340464549781</v>
       </c>
       <c r="C3">
-        <v>0.5277242423123312</v>
+        <v>0.2129154315258859</v>
       </c>
       <c r="D3">
-        <v>0.3488671327061184</v>
+        <v>0.5826259973420918</v>
       </c>
       <c r="E3">
-        <v>0.1117538415208656</v>
+        <v>0.2167951035967413</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008030956122355967</v>
+        <v>0.002470526933855391</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3414328159693198</v>
+        <v>0.7274079360384498</v>
       </c>
       <c r="J3">
-        <v>0.04077528617523996</v>
+        <v>0.0985693239473342</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6288193394800388</v>
+        <v>0.4553933785695961</v>
       </c>
       <c r="N3">
-        <v>0.7427469160356708</v>
+        <v>1.380341581171987</v>
       </c>
       <c r="O3">
-        <v>2.348965086476085</v>
+        <v>4.026415128617487</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.665867915712056</v>
+        <v>0.7544733867581499</v>
       </c>
       <c r="C4">
-        <v>0.4784812575067008</v>
+        <v>0.1988699658759856</v>
       </c>
       <c r="D4">
-        <v>0.3312565775836731</v>
+        <v>0.5805395360943351</v>
       </c>
       <c r="E4">
-        <v>0.107567447079095</v>
+        <v>0.2166678479860664</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008062501828818823</v>
+        <v>0.002472678883268816</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3391351562688136</v>
+        <v>0.7309916871335851</v>
       </c>
       <c r="J4">
-        <v>0.04032584971702491</v>
+        <v>0.09888446746873214</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5737273904887488</v>
+        <v>0.4413221926149689</v>
       </c>
       <c r="N4">
-        <v>0.7661248324826282</v>
+        <v>1.390273704016664</v>
       </c>
       <c r="O4">
-        <v>2.263066267053517</v>
+        <v>4.026647366315103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.596533829307276</v>
+        <v>0.7346051610903146</v>
       </c>
       <c r="C5">
-        <v>0.458462250402647</v>
+        <v>0.1931558587390327</v>
       </c>
       <c r="D5">
-        <v>0.3242041878304178</v>
+        <v>0.5797601275594246</v>
       </c>
       <c r="E5">
-        <v>0.1059049875368849</v>
+        <v>0.2166413734066346</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008075611692690179</v>
+        <v>0.002473583526355798</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3384165569905839</v>
+        <v>0.7325613870678822</v>
       </c>
       <c r="J5">
-        <v>0.04016000290048893</v>
+        <v>0.09902333142941799</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5513826639149286</v>
+        <v>0.4356372244518738</v>
       </c>
       <c r="N5">
-        <v>0.7759233542640231</v>
+        <v>1.394455273696494</v>
       </c>
       <c r="O5">
-        <v>2.22934967414011</v>
+        <v>4.027367124982561</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.585028075096744</v>
+        <v>0.7313086747641933</v>
       </c>
       <c r="C6">
-        <v>0.455140681775589</v>
+        <v>0.1922076164812268</v>
       </c>
       <c r="D6">
-        <v>0.323040389323765</v>
+        <v>0.5796349875803628</v>
       </c>
       <c r="E6">
-        <v>0.1056314889929943</v>
+        <v>0.2166385107076536</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008077804118148316</v>
+        <v>0.002473735417472893</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3383100373719046</v>
+        <v>0.7328286315246118</v>
       </c>
       <c r="J6">
-        <v>0.04013348428376062</v>
+        <v>0.09904702026555157</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5476783197090285</v>
+        <v>0.4346962152890868</v>
       </c>
       <c r="N6">
-        <v>0.777566581285722</v>
+        <v>1.395157722533089</v>
       </c>
       <c r="O6">
-        <v>2.223826361570048</v>
+        <v>4.027524375425628</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.664932354959319</v>
+        <v>0.7542052620493678</v>
       </c>
       <c r="C7">
-        <v>0.4782110948233935</v>
+        <v>0.198792864599568</v>
       </c>
       <c r="D7">
-        <v>0.3311609755351412</v>
+        <v>0.5805287378135802</v>
       </c>
       <c r="E7">
-        <v>0.1075448538407393</v>
+        <v>0.2166673881515209</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008062677594917719</v>
+        <v>0.00247269097135975</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3391245992011207</v>
+        <v>0.7310124143199808</v>
       </c>
       <c r="J7">
-        <v>0.04032354412434103</v>
+        <v>0.09888629796344617</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5734256320860354</v>
+        <v>0.4412453238229475</v>
       </c>
       <c r="N7">
-        <v>0.7662558884984492</v>
+        <v>1.390329554963468</v>
       </c>
       <c r="O7">
-        <v>2.262606451595644</v>
+        <v>4.026654543097891</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.018788764758426</v>
+        <v>0.855616972087148</v>
       </c>
       <c r="C8">
-        <v>0.580466962418285</v>
+        <v>0.2279353672400362</v>
       </c>
       <c r="D8">
-        <v>0.3681078628265908</v>
+        <v>0.585094449511999</v>
       </c>
       <c r="E8">
-        <v>0.1163776192952817</v>
+        <v>0.2170176335504088</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007998149081322697</v>
+        <v>0.002468325067138233</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.344663218597919</v>
+        <v>0.7239577101538508</v>
       </c>
       <c r="J8">
-        <v>0.04131649446462049</v>
+        <v>0.0982687236438089</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6880090138132857</v>
+        <v>0.4705760350758155</v>
       </c>
       <c r="N8">
-        <v>0.7187523436013734</v>
+        <v>1.370201624179238</v>
       </c>
       <c r="O8">
-        <v>2.445276164271689</v>
+        <v>4.028306105018487</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.719564039415786</v>
+        <v>1.05577988899438</v>
       </c>
       <c r="C9">
-        <v>0.7834309083116011</v>
+        <v>0.2853747323190134</v>
       </c>
       <c r="D9">
-        <v>0.4451787335197537</v>
+        <v>0.5962803783593529</v>
       </c>
       <c r="E9">
-        <v>0.1352926727181583</v>
+        <v>0.2185049491711979</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007879204063067907</v>
+        <v>0.002460631194715745</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3633730203019212</v>
+        <v>0.7135829794006412</v>
       </c>
       <c r="J9">
-        <v>0.04388028914739195</v>
+        <v>0.09738714762108813</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9171990215894965</v>
+        <v>0.5296309101593906</v>
       </c>
       <c r="N9">
-        <v>0.6348181344713275</v>
+        <v>1.33496337111896</v>
       </c>
       <c r="O9">
-        <v>2.851175208105502</v>
+        <v>4.051330721737202</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.241093139110092</v>
+        <v>1.203604301136863</v>
       </c>
       <c r="C10">
-        <v>0.9349028087550835</v>
+        <v>0.3277512097278077</v>
       </c>
       <c r="D10">
-        <v>0.5052601868466979</v>
+        <v>0.6058600221793426</v>
       </c>
       <c r="E10">
-        <v>0.1503620872482863</v>
+        <v>0.2200859490620353</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007796046264377546</v>
+        <v>0.002455501997094114</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3827862132002409</v>
+        <v>0.7080792968896219</v>
       </c>
       <c r="J10">
-        <v>0.04620394690805796</v>
+        <v>0.0969404645468579</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.089394511611999</v>
+        <v>0.5739520808066416</v>
       </c>
       <c r="N10">
-        <v>0.5793457537976749</v>
+        <v>1.311653108080243</v>
       </c>
       <c r="O10">
-        <v>3.184854423724857</v>
+        <v>4.080371132503757</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.480405906797671</v>
+        <v>1.271015269167378</v>
       </c>
       <c r="C11">
-        <v>1.004535444519746</v>
+        <v>0.3470674782654726</v>
       </c>
       <c r="D11">
-        <v>0.5334994912295201</v>
+        <v>0.6105138487145609</v>
       </c>
       <c r="E11">
-        <v>0.1575209188579194</v>
+        <v>0.2209113041731179</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007759038754427314</v>
+        <v>0.002453281102576841</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3930620520381609</v>
+        <v>0.7060376953966596</v>
       </c>
       <c r="J11">
-        <v>0.04737218321358938</v>
+        <v>0.09678094476365473</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.168819351890392</v>
+        <v>0.5943171882322247</v>
       </c>
       <c r="N11">
-        <v>0.5555936222253983</v>
+        <v>1.301608592620383</v>
       </c>
       <c r="O11">
-        <v>3.345908568679477</v>
+        <v>4.096229097407814</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.571379169601869</v>
+        <v>1.296565064724632</v>
       </c>
       <c r="C12">
-        <v>1.031027412824187</v>
+        <v>0.3543875503927723</v>
       </c>
       <c r="D12">
-        <v>0.5443376761359673</v>
+        <v>0.6123186777483909</v>
       </c>
       <c r="E12">
-        <v>0.1602798808460157</v>
+        <v>0.2212391087770165</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007745134555932107</v>
+        <v>0.002452456183020364</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3971804917232973</v>
+        <v>0.7053312055741401</v>
       </c>
       <c r="J12">
-        <v>0.04783197782442627</v>
+        <v>0.09672682234773333</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.199076147042192</v>
+        <v>0.602057994086806</v>
       </c>
       <c r="N12">
-        <v>0.546825279506006</v>
+        <v>1.29788546793587</v>
       </c>
       <c r="O12">
-        <v>3.408369108899336</v>
+        <v>4.102615763873018</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.551769947715627</v>
+        <v>1.291061464087022</v>
       </c>
       <c r="C13">
-        <v>1.025316074341902</v>
+        <v>0.3528108037795334</v>
       </c>
       <c r="D13">
-        <v>0.5419968130938742</v>
+        <v>0.6119280847735524</v>
       </c>
       <c r="E13">
-        <v>0.1596834770576194</v>
+        <v>0.2211678315307744</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000774812433429416</v>
+        <v>0.002452633130091919</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3962830795255954</v>
+        <v>0.7054803949975934</v>
       </c>
       <c r="J13">
-        <v>0.04773215462957836</v>
+        <v>0.09673819902939584</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.192551391724322</v>
+        <v>0.6003895878225194</v>
       </c>
       <c r="N13">
-        <v>0.5487034277630869</v>
+        <v>1.298683727367376</v>
       </c>
       <c r="O13">
-        <v>3.394849232470136</v>
+        <v>4.101223294611799</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.487882979322933</v>
+        <v>1.273116816424476</v>
       </c>
       <c r="C14">
-        <v>1.006712362281689</v>
+        <v>0.3476695974387098</v>
       </c>
       <c r="D14">
-        <v>0.5343881732008811</v>
+        <v>0.6106614810187239</v>
       </c>
       <c r="E14">
-        <v>0.1577469104167193</v>
+        <v>0.220937967031773</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007757892698573969</v>
+        <v>0.002453212914129734</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3933962077077595</v>
+        <v>0.7059782358607336</v>
       </c>
       <c r="J14">
-        <v>0.0474096533202264</v>
+        <v>0.09677636611421292</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.171304841832992</v>
+        <v>0.5949534495004087</v>
       </c>
       <c r="N14">
-        <v>0.554867636951208</v>
+        <v>1.301300674855096</v>
       </c>
       <c r="O14">
-        <v>3.351016865783521</v>
+        <v>4.096746879222366</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.448797710074928</v>
+        <v>1.26212813181354</v>
       </c>
       <c r="C15">
-        <v>0.9953337425708071</v>
+        <v>0.3445211604737324</v>
       </c>
       <c r="D15">
-        <v>0.5297469256470038</v>
+        <v>0.6098911866540675</v>
       </c>
       <c r="E15">
-        <v>0.1565671043095449</v>
+        <v>0.2207991556546212</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007763890135831629</v>
+        <v>0.002453570140887071</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3916581095413534</v>
+        <v>0.7062918589950087</v>
       </c>
       <c r="J15">
-        <v>0.04721442334415116</v>
+        <v>0.09680056305387907</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.158314926976658</v>
+        <v>0.5916274250969025</v>
       </c>
       <c r="N15">
-        <v>0.5586732350445764</v>
+        <v>1.302914118342876</v>
       </c>
       <c r="O15">
-        <v>3.3243644751565</v>
+        <v>4.09405466829034</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.225499541222575</v>
+        <v>1.199202069553507</v>
       </c>
       <c r="C16">
-        <v>0.9303683730688022</v>
+        <v>0.3264896148296543</v>
       </c>
       <c r="D16">
-        <v>0.5034341228867731</v>
+        <v>0.6055618366261513</v>
       </c>
       <c r="E16">
-        <v>0.1499007191232842</v>
+        <v>0.2200341458533899</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007798480620214932</v>
+        <v>0.002455649393053327</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3821453600785247</v>
+        <v>0.7082220331948506</v>
       </c>
       <c r="J16">
-        <v>0.04612995597289427</v>
+        <v>0.09695176874721767</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.084227832913705</v>
+        <v>0.5726252415273905</v>
       </c>
       <c r="N16">
-        <v>0.5809289218648388</v>
+        <v>1.312320803898281</v>
       </c>
       <c r="O16">
-        <v>3.174527306035202</v>
+        <v>4.079388126535747</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.089079272400397</v>
+        <v>1.160640499663828</v>
       </c>
       <c r="C17">
-        <v>0.8907134876074849</v>
+        <v>0.3154376999663953</v>
       </c>
       <c r="D17">
-        <v>0.4875342181511542</v>
+        <v>0.6029817054465525</v>
       </c>
       <c r="E17">
-        <v>0.145891901060061</v>
+        <v>0.21959202200593</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007819905386705849</v>
+        <v>0.002456953679964175</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3766929532294512</v>
+        <v>0.7095246013354526</v>
       </c>
       <c r="J17">
-        <v>0.04549412158769073</v>
+        <v>0.09705571800525448</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.039073471350513</v>
+        <v>0.5610198894656477</v>
       </c>
       <c r="N17">
-        <v>0.5949706233434</v>
+        <v>1.318234834040421</v>
       </c>
       <c r="O17">
-        <v>3.085075792122353</v>
+        <v>4.071069374553844</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.010804981481158</v>
+        <v>1.13847648465287</v>
       </c>
       <c r="C18">
-        <v>0.8679722656411286</v>
+        <v>0.3090846124942459</v>
       </c>
       <c r="D18">
-        <v>0.4784735674669491</v>
+        <v>0.6015255452614952</v>
       </c>
       <c r="E18">
-        <v>0.1436144339974348</v>
+        <v>0.2193477156416535</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007832306197490069</v>
+        <v>0.002457714455759785</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3736915955098681</v>
+        <v>0.7103172838365239</v>
       </c>
       <c r="J18">
-        <v>0.04513878052821596</v>
+        <v>0.09711961789577828</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.013203174777949</v>
+        <v>0.5543639366331874</v>
       </c>
       <c r="N18">
-        <v>0.6031857505559479</v>
+        <v>1.321689080486227</v>
       </c>
       <c r="O18">
-        <v>3.034488283005288</v>
+        <v>4.066533773190912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.984333907448217</v>
+        <v>1.130974836059522</v>
       </c>
       <c r="C19">
-        <v>0.8602834725603543</v>
+        <v>0.3069342042859091</v>
       </c>
       <c r="D19">
-        <v>0.4754199013015636</v>
+        <v>0.6010373011236823</v>
       </c>
       <c r="E19">
-        <v>0.1428480551643467</v>
+        <v>0.2192667138866717</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007836518515027535</v>
+        <v>0.002457973861763269</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3726979594026858</v>
+        <v>0.7105931347961345</v>
       </c>
       <c r="J19">
-        <v>0.0450202086203042</v>
+        <v>0.09714195927453417</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.004460658882373</v>
+        <v>0.5521136396776711</v>
       </c>
       <c r="N19">
-        <v>0.6059906994677284</v>
+        <v>1.322867670135409</v>
       </c>
       <c r="O19">
-        <v>3.01750427874461</v>
+        <v>4.065040856117946</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.103581298180131</v>
+        <v>1.164743839296591</v>
       </c>
       <c r="C20">
-        <v>0.8949277287587449</v>
+        <v>0.3166138154954297</v>
       </c>
       <c r="D20">
-        <v>0.4892179414199234</v>
+        <v>0.6032534813767825</v>
       </c>
       <c r="E20">
-        <v>0.1463156870640212</v>
+        <v>0.2196380527816011</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007817616685021184</v>
+        <v>0.002456813741441329</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3772592921962215</v>
+        <v>0.7093814394521232</v>
       </c>
       <c r="J20">
-        <v>0.04556072367258324</v>
+        <v>0.09704422692919579</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.04386958422031</v>
+        <v>0.562253319932978</v>
       </c>
       <c r="N20">
-        <v>0.593461414043233</v>
+        <v>1.317599825590776</v>
       </c>
       <c r="O20">
-        <v>3.094507795992314</v>
+        <v>4.071929129794967</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.50663816183004</v>
+        <v>1.278386985528243</v>
       </c>
       <c r="C21">
-        <v>1.012173208581174</v>
+        <v>0.3491795487416312</v>
       </c>
       <c r="D21">
-        <v>0.5366189738301443</v>
+        <v>0.6110323594045042</v>
       </c>
       <c r="E21">
-        <v>0.1583143854856246</v>
+        <v>0.2210050696690296</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007755020584393522</v>
+        <v>0.002453042181542949</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3942378224139702</v>
+        <v>0.7058301984519346</v>
       </c>
       <c r="J21">
-        <v>0.04750389537105804</v>
+        <v>0.09676498493602281</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.177540378638511</v>
+        <v>0.5965493904203356</v>
       </c>
       <c r="N21">
-        <v>0.5530508157519058</v>
+        <v>1.300529828208763</v>
       </c>
       <c r="O21">
-        <v>3.363850337441249</v>
+        <v>4.098051347115273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.772131722426195</v>
+        <v>1.352791354319606</v>
       </c>
       <c r="C22">
-        <v>1.089530489438232</v>
+        <v>0.3704946465084618</v>
       </c>
       <c r="D22">
-        <v>0.5684483663657716</v>
+        <v>0.616364162280945</v>
       </c>
       <c r="E22">
-        <v>0.1664387270601893</v>
+        <v>0.221987442773468</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007714745696790964</v>
+        <v>0.002450670968855879</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4066688380229806</v>
+        <v>0.7038976547143818</v>
       </c>
       <c r="J22">
-        <v>0.04887609307163743</v>
+        <v>0.09661911530166023</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.265965414947502</v>
+        <v>0.6191326737419018</v>
       </c>
       <c r="N22">
-        <v>0.5279646441635073</v>
+        <v>1.289842938325336</v>
       </c>
       <c r="O22">
-        <v>3.548540557656054</v>
+        <v>4.117348407393649</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.630224203732212</v>
+        <v>1.313068589321801</v>
       </c>
       <c r="C23">
-        <v>1.048169846475446</v>
+        <v>0.3591155561785513</v>
       </c>
       <c r="D23">
-        <v>0.551377687569186</v>
+        <v>0.613495812322185</v>
       </c>
       <c r="E23">
-        <v>0.162075209718644</v>
+        <v>0.2214549941271144</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007736185979321575</v>
+        <v>0.002451927980081024</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.399905187997696</v>
+        <v>0.704893492283027</v>
       </c>
       <c r="J23">
-        <v>0.04813386992715607</v>
+        <v>0.09669361577798696</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.218665762843273</v>
+        <v>0.6070641811384831</v>
       </c>
       <c r="N23">
-        <v>0.54122787662455</v>
+        <v>1.295503764027089</v>
       </c>
       <c r="O23">
-        <v>3.449125728182025</v>
+        <v>4.106845340936161</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.09702445184513</v>
+        <v>1.162888702100531</v>
       </c>
       <c r="C24">
-        <v>0.8930222945191133</v>
+        <v>0.3160820911435565</v>
       </c>
       <c r="D24">
-        <v>0.4884564806957883</v>
+        <v>0.6031305267781875</v>
       </c>
       <c r="E24">
-        <v>0.1461240088437243</v>
+        <v>0.2196172115034756</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007818651146969506</v>
+        <v>0.00245687697355956</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3770028365897176</v>
+        <v>0.7094460264560141</v>
       </c>
       <c r="J24">
-        <v>0.04553058117844344</v>
+        <v>0.09704940915504423</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.041700984405402</v>
+        <v>0.56169563579369</v>
       </c>
       <c r="N24">
-        <v>0.594143285091647</v>
+        <v>1.317886744104928</v>
       </c>
       <c r="O24">
-        <v>3.090240983141882</v>
+        <v>4.071539665233928</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.529006244924176</v>
+        <v>1.001494459348976</v>
       </c>
       <c r="C25">
-        <v>0.7281773895194874</v>
+        <v>0.269804880993064</v>
       </c>
       <c r="D25">
-        <v>0.4237712739617052</v>
+        <v>0.5930152468677221</v>
       </c>
       <c r="E25">
-        <v>0.1299851980419184</v>
+        <v>0.2180168664246338</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007910608315757953</v>
+        <v>0.00246262026867938</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3573841929644459</v>
+        <v>0.7160182627004801</v>
       </c>
       <c r="J25">
-        <v>0.04311438122168454</v>
+        <v>0.09759034889344065</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8546106458153915</v>
+        <v>0.5134907970860354</v>
       </c>
       <c r="N25">
-        <v>0.6564809630253237</v>
+        <v>1.344043250370497</v>
       </c>
       <c r="O25">
-        <v>2.735633273755894</v>
+        <v>4.042977324913409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_221/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.883183028644055</v>
+        <v>2.115045180583309</v>
       </c>
       <c r="C2">
-        <v>0.2358512843325684</v>
+        <v>0.6083086475701691</v>
       </c>
       <c r="D2">
-        <v>0.5864826086597219</v>
+        <v>0.3784089932473762</v>
       </c>
       <c r="E2">
-        <v>0.2171666956241971</v>
+        <v>0.1188718065515317</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00246720104783973</v>
+        <v>0.0007981192986329237</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7222800043408846</v>
+        <v>0.3466645830583559</v>
       </c>
       <c r="J2">
-        <v>0.09812368452844211</v>
+        <v>0.04162505443339271</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4786273770703033</v>
+        <v>0.7193225404465977</v>
       </c>
       <c r="N2">
-        <v>1.365034447659678</v>
+        <v>0.7064854656138735</v>
       </c>
       <c r="O2">
-        <v>4.030090296124257</v>
+        <v>2.497777015599439</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8033340464549781</v>
+        <v>1.836336182851994</v>
       </c>
       <c r="C3">
-        <v>0.2129154315258859</v>
+        <v>0.5277242423125585</v>
       </c>
       <c r="D3">
-        <v>0.5826259973420918</v>
+        <v>0.3488671327064168</v>
       </c>
       <c r="E3">
-        <v>0.2167951035967413</v>
+        <v>0.1117538415208692</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002470526933855391</v>
+        <v>0.0008030956122342466</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7274079360384498</v>
+        <v>0.3414328159693341</v>
       </c>
       <c r="J3">
-        <v>0.0985693239473342</v>
+        <v>0.04077528617521153</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4553933785695961</v>
+        <v>0.6288193394800459</v>
       </c>
       <c r="N3">
-        <v>1.380341581171987</v>
+        <v>0.7427469160356672</v>
       </c>
       <c r="O3">
-        <v>4.026415128617487</v>
+        <v>2.348965086476056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7544733867581499</v>
+        <v>1.6658679157118</v>
       </c>
       <c r="C4">
-        <v>0.1988699658759856</v>
+        <v>0.4784812575066724</v>
       </c>
       <c r="D4">
-        <v>0.5805395360943351</v>
+        <v>0.3312565775837868</v>
       </c>
       <c r="E4">
-        <v>0.2166678479860664</v>
+        <v>0.1075674470790915</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002472678883268816</v>
+        <v>0.0008062501828806578</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7309916871335851</v>
+        <v>0.3391351562688207</v>
       </c>
       <c r="J4">
-        <v>0.09888446746873214</v>
+        <v>0.04032584971702846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4413221926149689</v>
+        <v>0.5737273904887417</v>
       </c>
       <c r="N4">
-        <v>1.390273704016664</v>
+        <v>0.7661248324826424</v>
       </c>
       <c r="O4">
-        <v>4.026647366315103</v>
+        <v>2.263066267053574</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7346051610903146</v>
+        <v>1.596533829307361</v>
       </c>
       <c r="C5">
-        <v>0.1931558587390327</v>
+        <v>0.4584622504021638</v>
       </c>
       <c r="D5">
-        <v>0.5797601275594246</v>
+        <v>0.3242041878304036</v>
       </c>
       <c r="E5">
-        <v>0.2166413734066346</v>
+        <v>0.1059049875369134</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002473583526355798</v>
+        <v>0.000807561169297587</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7325613870678822</v>
+        <v>0.338416556990591</v>
       </c>
       <c r="J5">
-        <v>0.09902333142941799</v>
+        <v>0.04016000290040722</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4356372244518738</v>
+        <v>0.5513826639149215</v>
       </c>
       <c r="N5">
-        <v>1.394455273696494</v>
+        <v>0.7759233542640871</v>
       </c>
       <c r="O5">
-        <v>4.027367124982561</v>
+        <v>2.22934967414011</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7313086747641933</v>
+        <v>1.585028075096716</v>
       </c>
       <c r="C6">
-        <v>0.1922076164812268</v>
+        <v>0.4551406817757027</v>
       </c>
       <c r="D6">
-        <v>0.5796349875803628</v>
+        <v>0.3230403893239355</v>
       </c>
       <c r="E6">
-        <v>0.2166385107076536</v>
+        <v>0.1056314889929943</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002473735417472893</v>
+        <v>0.0008077804118152007</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7328286315246118</v>
+        <v>0.3383100373718904</v>
       </c>
       <c r="J6">
-        <v>0.09904702026555157</v>
+        <v>0.04013348428376773</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4346962152890868</v>
+        <v>0.5476783197090072</v>
       </c>
       <c r="N6">
-        <v>1.395157722533089</v>
+        <v>0.7775665812857007</v>
       </c>
       <c r="O6">
-        <v>4.027524375425628</v>
+        <v>2.223826361569934</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7542052620493678</v>
+        <v>1.664932354959461</v>
       </c>
       <c r="C7">
-        <v>0.198792864599568</v>
+        <v>0.4782110948235072</v>
       </c>
       <c r="D7">
-        <v>0.5805287378135802</v>
+        <v>0.3311609755350133</v>
       </c>
       <c r="E7">
-        <v>0.2166673881515209</v>
+        <v>0.1075448538407215</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00247269097135975</v>
+        <v>0.0008062677594618756</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7310124143199808</v>
+        <v>0.3391245992011136</v>
       </c>
       <c r="J7">
-        <v>0.09888629796344617</v>
+        <v>0.0403235441243055</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4412453238229475</v>
+        <v>0.573425632086014</v>
       </c>
       <c r="N7">
-        <v>1.390329554963468</v>
+        <v>0.7662558884984421</v>
       </c>
       <c r="O7">
-        <v>4.026654543097891</v>
+        <v>2.262606451595616</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.855616972087148</v>
+        <v>2.018788764758369</v>
       </c>
       <c r="C8">
-        <v>0.2279353672400362</v>
+        <v>0.580466962418285</v>
       </c>
       <c r="D8">
-        <v>0.585094449511999</v>
+        <v>0.3681078628265197</v>
       </c>
       <c r="E8">
-        <v>0.2170176335504088</v>
+        <v>0.1163776192952675</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002468325067138233</v>
+        <v>0.0007998149081317939</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7239577101538508</v>
+        <v>0.3446632185979261</v>
       </c>
       <c r="J8">
-        <v>0.0982687236438089</v>
+        <v>0.04131649446475549</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4705760350758155</v>
+        <v>0.6880090138132999</v>
       </c>
       <c r="N8">
-        <v>1.370201624179238</v>
+        <v>0.7187523436013166</v>
       </c>
       <c r="O8">
-        <v>4.028306105018487</v>
+        <v>2.445276164271746</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05577988899438</v>
+        <v>2.719564039415729</v>
       </c>
       <c r="C9">
-        <v>0.2853747323190134</v>
+        <v>0.7834309083114874</v>
       </c>
       <c r="D9">
-        <v>0.5962803783593529</v>
+        <v>0.4451787335197253</v>
       </c>
       <c r="E9">
-        <v>0.2185049491711979</v>
+        <v>0.1352926727181583</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002460631194715745</v>
+        <v>0.000787920406277362</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7135829794006412</v>
+        <v>0.3633730203019283</v>
       </c>
       <c r="J9">
-        <v>0.09738714762108813</v>
+        <v>0.04388028914741682</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5296309101593906</v>
+        <v>0.9171990215895036</v>
       </c>
       <c r="N9">
-        <v>1.33496337111896</v>
+        <v>0.6348181344713701</v>
       </c>
       <c r="O9">
-        <v>4.051330721737202</v>
+        <v>2.851175208105474</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.203604301136863</v>
+        <v>3.241093139109978</v>
       </c>
       <c r="C10">
-        <v>0.3277512097278077</v>
+        <v>0.9349028087545719</v>
       </c>
       <c r="D10">
-        <v>0.6058600221793426</v>
+        <v>0.5052601868467264</v>
       </c>
       <c r="E10">
-        <v>0.2200859490620353</v>
+        <v>0.1503620872482792</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002455501997094114</v>
+        <v>0.0007796046264374471</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7080792968896219</v>
+        <v>0.3827862132002551</v>
       </c>
       <c r="J10">
-        <v>0.0969404645468579</v>
+        <v>0.04620394690805085</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5739520808066416</v>
+        <v>1.089394511611999</v>
       </c>
       <c r="N10">
-        <v>1.311653108080243</v>
+        <v>0.5793457537977247</v>
       </c>
       <c r="O10">
-        <v>4.080371132503757</v>
+        <v>3.184854423724857</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.271015269167378</v>
+        <v>3.480405906797728</v>
       </c>
       <c r="C11">
-        <v>0.3470674782654726</v>
+        <v>1.00453544451949</v>
       </c>
       <c r="D11">
-        <v>0.6105138487145609</v>
+        <v>0.5334994912294349</v>
       </c>
       <c r="E11">
-        <v>0.2209113041731179</v>
+        <v>0.1575209188579194</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002453281102576841</v>
+        <v>0.0007759038754414915</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7060376953966596</v>
+        <v>0.393062052038168</v>
       </c>
       <c r="J11">
-        <v>0.09678094476365473</v>
+        <v>0.04737218321356096</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5943171882322247</v>
+        <v>1.168819351890406</v>
       </c>
       <c r="N11">
-        <v>1.301608592620383</v>
+        <v>0.5555936222253841</v>
       </c>
       <c r="O11">
-        <v>4.096229097407814</v>
+        <v>3.34590856867942</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.296565064724632</v>
+        <v>3.571379169602039</v>
       </c>
       <c r="C12">
-        <v>0.3543875503927723</v>
+        <v>1.031027412824301</v>
       </c>
       <c r="D12">
-        <v>0.6123186777483909</v>
+        <v>0.5443376761359389</v>
       </c>
       <c r="E12">
-        <v>0.2212391087770165</v>
+        <v>0.1602798808460015</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002452456183020364</v>
+        <v>0.000774513455614645</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7053312055741401</v>
+        <v>0.3971804917233044</v>
       </c>
       <c r="J12">
-        <v>0.09672682234773333</v>
+        <v>0.0478319778245897</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.602057994086806</v>
+        <v>1.199076147042206</v>
       </c>
       <c r="N12">
-        <v>1.29788546793587</v>
+        <v>0.54682527950607</v>
       </c>
       <c r="O12">
-        <v>4.102615763873018</v>
+        <v>3.408369108899393</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.291061464087022</v>
+        <v>3.551769947715798</v>
       </c>
       <c r="C13">
-        <v>0.3528108037795334</v>
+        <v>1.025316074342129</v>
       </c>
       <c r="D13">
-        <v>0.6119280847735524</v>
+        <v>0.5419968130938457</v>
       </c>
       <c r="E13">
-        <v>0.2211678315307744</v>
+        <v>0.1596834770576372</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002452633130091919</v>
+        <v>0.0007748124333280432</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7054803949975934</v>
+        <v>0.3962830795255883</v>
       </c>
       <c r="J13">
-        <v>0.09673819902939584</v>
+        <v>0.04773215462957481</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6003895878225194</v>
+        <v>1.192551391724308</v>
       </c>
       <c r="N13">
-        <v>1.298683727367376</v>
+        <v>0.5487034277631437</v>
       </c>
       <c r="O13">
-        <v>4.101223294611799</v>
+        <v>3.394849232470108</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.273116816424476</v>
+        <v>3.487882979322933</v>
       </c>
       <c r="C14">
-        <v>0.3476695974387098</v>
+        <v>1.006712362281291</v>
       </c>
       <c r="D14">
-        <v>0.6106614810187239</v>
+        <v>0.5343881732010516</v>
       </c>
       <c r="E14">
-        <v>0.220937967031773</v>
+        <v>0.1577469104167157</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002453212914129734</v>
+        <v>0.0007757892698556006</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7059782358607336</v>
+        <v>0.3933962077077453</v>
       </c>
       <c r="J14">
-        <v>0.09677636611421292</v>
+        <v>0.04740965332018732</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5949534495004087</v>
+        <v>1.17130484183302</v>
       </c>
       <c r="N14">
-        <v>1.301300674855096</v>
+        <v>0.5548676369511938</v>
       </c>
       <c r="O14">
-        <v>4.096746879222366</v>
+        <v>3.351016865783549</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.26212813181354</v>
+        <v>3.448797710075098</v>
       </c>
       <c r="C15">
-        <v>0.3445211604737324</v>
+        <v>0.9953337425711197</v>
       </c>
       <c r="D15">
-        <v>0.6098911866540675</v>
+        <v>0.5297469256469753</v>
       </c>
       <c r="E15">
-        <v>0.2207991556546212</v>
+        <v>0.1565671043095342</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002453570140887071</v>
+        <v>0.0007763890135812083</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7062918589950087</v>
+        <v>0.3916581095413605</v>
       </c>
       <c r="J15">
-        <v>0.09680056305387907</v>
+        <v>0.047214423344073</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5916274250969025</v>
+        <v>1.158314926976672</v>
       </c>
       <c r="N15">
-        <v>1.302914118342876</v>
+        <v>0.5586732350445551</v>
       </c>
       <c r="O15">
-        <v>4.09405466829034</v>
+        <v>3.3243644751565</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.199202069553507</v>
+        <v>3.225499541222689</v>
       </c>
       <c r="C16">
-        <v>0.3264896148296543</v>
+        <v>0.9303683730689443</v>
       </c>
       <c r="D16">
-        <v>0.6055618366261513</v>
+        <v>0.503434122886631</v>
       </c>
       <c r="E16">
-        <v>0.2200341458533899</v>
+        <v>0.149900719123309</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002455649393053327</v>
+        <v>0.0007798480619798004</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7082220331948506</v>
+        <v>0.3821453600785318</v>
       </c>
       <c r="J16">
-        <v>0.09695176874721767</v>
+        <v>0.04612995597294045</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5726252415273905</v>
+        <v>1.08422783291374</v>
       </c>
       <c r="N16">
-        <v>1.312320803898281</v>
+        <v>0.5809289218648495</v>
       </c>
       <c r="O16">
-        <v>4.079388126535747</v>
+        <v>3.17452730603523</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.160640499663828</v>
+        <v>3.089079272400454</v>
       </c>
       <c r="C17">
-        <v>0.3154376999663953</v>
+        <v>0.8907134876071723</v>
       </c>
       <c r="D17">
-        <v>0.6029817054465525</v>
+        <v>0.4875342181512394</v>
       </c>
       <c r="E17">
-        <v>0.21959202200593</v>
+        <v>0.1458919010600717</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002456953679964175</v>
+        <v>0.0007819905386708251</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7095246013354526</v>
+        <v>0.3766929532294512</v>
       </c>
       <c r="J17">
-        <v>0.09705571800525448</v>
+        <v>0.04549412158779376</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5610198894656477</v>
+        <v>1.039073471350527</v>
       </c>
       <c r="N17">
-        <v>1.318234834040421</v>
+        <v>0.5949706233433396</v>
       </c>
       <c r="O17">
-        <v>4.071069374553844</v>
+        <v>3.085075792122296</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.13847648465287</v>
+        <v>3.010804981481101</v>
       </c>
       <c r="C18">
-        <v>0.3090846124942459</v>
+        <v>0.8679722656409865</v>
       </c>
       <c r="D18">
-        <v>0.6015255452614952</v>
+        <v>0.4784735674669776</v>
       </c>
       <c r="E18">
-        <v>0.2193477156416535</v>
+        <v>0.1436144339974383</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002457714455759785</v>
+        <v>0.000783230619777808</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7103172838365239</v>
+        <v>0.3736915955098752</v>
       </c>
       <c r="J18">
-        <v>0.09711961789577828</v>
+        <v>0.04513878052817333</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5543639366331874</v>
+        <v>1.013203174777964</v>
       </c>
       <c r="N18">
-        <v>1.321689080486227</v>
+        <v>0.6031857505559479</v>
       </c>
       <c r="O18">
-        <v>4.066533773190912</v>
+        <v>3.034488283005231</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.130974836059522</v>
+        <v>2.984333907448274</v>
       </c>
       <c r="C19">
-        <v>0.3069342042859091</v>
+        <v>0.8602834725607522</v>
       </c>
       <c r="D19">
-        <v>0.6010373011236823</v>
+        <v>0.47541990130145</v>
       </c>
       <c r="E19">
-        <v>0.2192667138866717</v>
+        <v>0.1428480551643183</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002457973861763269</v>
+        <v>0.0007836518515355313</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7105931347961345</v>
+        <v>0.3726979594026858</v>
       </c>
       <c r="J19">
-        <v>0.09714195927453417</v>
+        <v>0.04502020862036815</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5521136396776711</v>
+        <v>1.004460658882365</v>
       </c>
       <c r="N19">
-        <v>1.322867670135409</v>
+        <v>0.6059906994677213</v>
       </c>
       <c r="O19">
-        <v>4.065040856117946</v>
+        <v>3.017504278744667</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.164743839296591</v>
+        <v>3.103581298180018</v>
       </c>
       <c r="C20">
-        <v>0.3166138154954297</v>
+        <v>0.894927728758546</v>
       </c>
       <c r="D20">
-        <v>0.6032534813767825</v>
+        <v>0.4892179414199802</v>
       </c>
       <c r="E20">
-        <v>0.2196380527816011</v>
+        <v>0.1463156870640141</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002456813741441329</v>
+        <v>0.0007817616684727326</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7093814394521232</v>
+        <v>0.3772592921962499</v>
       </c>
       <c r="J20">
-        <v>0.09704422692919579</v>
+        <v>0.04556072367262232</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.562253319932978</v>
+        <v>1.04386958422031</v>
       </c>
       <c r="N20">
-        <v>1.317599825590776</v>
+        <v>0.5934614140432295</v>
       </c>
       <c r="O20">
-        <v>4.071929129794967</v>
+        <v>3.094507795992314</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.278386985528243</v>
+        <v>3.506638161830153</v>
       </c>
       <c r="C21">
-        <v>0.3491795487416312</v>
+        <v>1.012173208581288</v>
       </c>
       <c r="D21">
-        <v>0.6110323594045042</v>
+        <v>0.536618973830457</v>
       </c>
       <c r="E21">
-        <v>0.2210050696690296</v>
+        <v>0.1583143854855891</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002453042181542949</v>
+        <v>0.0007755020584684443</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7058301984519346</v>
+        <v>0.3942378224139702</v>
       </c>
       <c r="J21">
-        <v>0.09676498493602281</v>
+        <v>0.04750389537110422</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5965493904203356</v>
+        <v>1.177540378638511</v>
       </c>
       <c r="N21">
-        <v>1.300529828208763</v>
+        <v>0.5530508157518526</v>
       </c>
       <c r="O21">
-        <v>4.098051347115273</v>
+        <v>3.363850337441221</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.352791354319606</v>
+        <v>3.772131722426423</v>
       </c>
       <c r="C22">
-        <v>0.3704946465084618</v>
+        <v>1.08953048943863</v>
       </c>
       <c r="D22">
-        <v>0.616364162280945</v>
+        <v>0.5684483663655726</v>
       </c>
       <c r="E22">
-        <v>0.221987442773468</v>
+        <v>0.1664387270601786</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002450670968855879</v>
+        <v>0.0007714745696420335</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7038976547143818</v>
+        <v>0.4066688380229877</v>
       </c>
       <c r="J22">
-        <v>0.09661911530166023</v>
+        <v>0.04887609307158414</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6191326737419018</v>
+        <v>1.265965414947502</v>
       </c>
       <c r="N22">
-        <v>1.289842938325336</v>
+        <v>0.527964644163454</v>
       </c>
       <c r="O22">
-        <v>4.117348407393649</v>
+        <v>3.548540557656111</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.313068589321801</v>
+        <v>3.630224203732325</v>
       </c>
       <c r="C23">
-        <v>0.3591155561785513</v>
+        <v>1.048169846475673</v>
       </c>
       <c r="D23">
-        <v>0.613495812322185</v>
+        <v>0.551377687569186</v>
       </c>
       <c r="E23">
-        <v>0.2214549941271144</v>
+        <v>0.1620752097186724</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002451927980081024</v>
+        <v>0.0007736185978367407</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.704893492283027</v>
+        <v>0.399905187997696</v>
       </c>
       <c r="J23">
-        <v>0.09669361577798696</v>
+        <v>0.04813386992719515</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6070641811384831</v>
+        <v>1.218665762843258</v>
       </c>
       <c r="N23">
-        <v>1.295503764027089</v>
+        <v>0.5412278766246068</v>
       </c>
       <c r="O23">
-        <v>4.106845340936161</v>
+        <v>3.449125728182025</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.162888702100531</v>
+        <v>3.0970244518453</v>
       </c>
       <c r="C24">
-        <v>0.3160820911435565</v>
+        <v>0.8930222945190849</v>
       </c>
       <c r="D24">
-        <v>0.6031305267781875</v>
+        <v>0.4884564806958736</v>
       </c>
       <c r="E24">
-        <v>0.2196172115034756</v>
+        <v>0.1461240088437528</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00245687697355956</v>
+        <v>0.000781865114662644</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7094460264560141</v>
+        <v>0.3770028365897176</v>
       </c>
       <c r="J24">
-        <v>0.09704940915504423</v>
+        <v>0.04553058117845055</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.56169563579369</v>
+        <v>1.041700984405409</v>
       </c>
       <c r="N24">
-        <v>1.317886744104928</v>
+        <v>0.5941432850916364</v>
       </c>
       <c r="O24">
-        <v>4.071539665233928</v>
+        <v>3.090240983141939</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.001494459348976</v>
+        <v>2.529006244924119</v>
       </c>
       <c r="C25">
-        <v>0.269804880993064</v>
+        <v>0.7281773895194874</v>
       </c>
       <c r="D25">
-        <v>0.5930152468677221</v>
+        <v>0.4237712739615773</v>
       </c>
       <c r="E25">
-        <v>0.2180168664246338</v>
+        <v>0.1299851980418936</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00246262026867938</v>
+        <v>0.0007910608315452902</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7160182627004801</v>
+        <v>0.3573841929644317</v>
       </c>
       <c r="J25">
-        <v>0.09759034889344065</v>
+        <v>0.04311438122162414</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5134907970860354</v>
+        <v>0.8546106458153773</v>
       </c>
       <c r="N25">
-        <v>1.344043250370497</v>
+        <v>0.6564809630253734</v>
       </c>
       <c r="O25">
-        <v>4.042977324913409</v>
+        <v>2.735633273755809</v>
       </c>
     </row>
   </sheetData>
